--- a/aidants_connect_web/fixtures/import-aidants/correct-files/token-import.xlsx
+++ b/aidants_connect_web/fixtures/import-aidants/correct-files/token-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahr/Code/Aidants_Connect/aidants_connect_web/fixtures/import-aidants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahr/Code/Aidants_Connect/aidants_connect_web/fixtures/import-aidants/correct-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90AE2B-E2A8-1C46-BDBA-4D9DF8C54063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DF5B0B-9649-B445-AB23-EEE8E4F568A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="560" windowWidth="27860" windowHeight="17440" xr2:uid="{BEEF2C64-65BD-4D43-B9B0-F70D0F512F29}"/>
   </bookViews>
@@ -479,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4444</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>4444</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
